--- a/Database table Examples.xlsx
+++ b/Database table Examples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataUoT\FinalProject_RoadTrippr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F54338DD-A2E2-446F-BFA0-14632E423654}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4802DDD6-7CBC-44DA-9A65-BBDF21AEE9D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{90E5DD47-2F48-4ACB-8F16-0C5FCE4CF800}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="3" xr2:uid="{90E5DD47-2F48-4ACB-8F16-0C5FCE4CF800}"/>
   </bookViews>
   <sheets>
     <sheet name="ERD" sheetId="13" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2627" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2647" uniqueCount="130">
   <si>
     <t>Q1</t>
   </si>
@@ -407,6 +407,33 @@
   </si>
   <si>
     <t>Question9 or 10 answer will define the user cluster, so no need to save the user cluster information</t>
+  </si>
+  <si>
+    <t>Question_Desc</t>
+  </si>
+  <si>
+    <t>sfd</t>
+  </si>
+  <si>
+    <t>3sdfsdf</t>
+  </si>
+  <si>
+    <t>1sdfsfd</t>
+  </si>
+  <si>
+    <t>sdfsd</t>
+  </si>
+  <si>
+    <t>4sdfsd</t>
+  </si>
+  <si>
+    <t>sdfwee</t>
+  </si>
+  <si>
+    <t>sds</t>
+  </si>
+  <si>
+    <t>7werw</t>
   </si>
 </sst>
 </file>
@@ -2501,7 +2528,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
@@ -2520,7 +2547,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2581,7 +2608,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2804,14 +2831,98 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3069,7 +3180,7 @@
   <dimension ref="A1:F1201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24018,7 +24129,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+      <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
